--- a/reviewsheet/review_points_kaungkhantnaing (1).xlsx
+++ b/reviewsheet/review_points_kaungkhantnaing (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\php_training\reviewsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE4096E-9046-4A8A-8AB6-D334E2514963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942A290E-AA3C-4C1D-A99B-1B056E62C560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Head" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
   <si>
     <t>Open</t>
     <phoneticPr fontId="1"/>
@@ -282,6 +282,75 @@
   </si>
   <si>
     <t>formatting with php intelephense extension</t>
+  </si>
+  <si>
+    <t>対応日</t>
+  </si>
+  <si>
+    <t>対応内容</t>
+  </si>
+  <si>
+    <t>対応者</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>25/10/2021</t>
+  </si>
+  <si>
+    <t>ThiriKyawZin</t>
+  </si>
+  <si>
+    <t>23/10/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete </t>
+  </si>
+  <si>
+    <t>I used textarea for address, textarea element can't use value attribue</t>
+  </si>
+  <si>
+    <t>fixed all bugs and errors</t>
+  </si>
+  <si>
+    <t>ZinMar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change as review </t>
+  </si>
+  <si>
+    <t xml:space="preserve">used composer for phpqrcode library </t>
+  </si>
+  <si>
+    <t>22/10/2021</t>
+  </si>
+  <si>
+    <t>fixed bugs and errors</t>
+  </si>
+  <si>
+    <t>create and change directory</t>
+  </si>
+  <si>
+    <t>used composer for simplexlsx library</t>
+  </si>
+  <si>
+    <t>add check error condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use library </t>
+  </si>
+  <si>
+    <t>fixed as review</t>
+  </si>
+  <si>
+    <t>use formatter extension</t>
+  </si>
+  <si>
+    <t>create show.php for display success message</t>
+  </si>
+  <si>
+    <t>19/10/2021</t>
   </si>
 </sst>
 </file>
@@ -1947,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="G4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2047,14 +2116,20 @@
       <c r="M2" s="26"/>
       <c r="N2" s="27"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="28"/>
+      <c r="P2" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="V2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X2" s="18"/>
     </row>
     <row r="3" spans="1:24" ht="261.75" customHeight="1">
@@ -2087,14 +2162,20 @@
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="28"/>
+      <c r="P3" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="V3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" ht="137.25" customHeight="1">
@@ -2127,14 +2208,20 @@
       <c r="M4" s="26"/>
       <c r="N4" s="27"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="28"/>
+      <c r="P4" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="28"/>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="V4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X4" s="18"/>
     </row>
   </sheetData>
@@ -2199,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13264516-45EC-4B12-9C49-DDC008555DF7}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C2" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2299,14 +2386,20 @@
       <c r="M2" s="26"/>
       <c r="N2" s="27"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="28"/>
+      <c r="P2" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="V2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X2" s="18"/>
     </row>
     <row r="3" spans="1:24" ht="216.75" customHeight="1">
@@ -2339,14 +2432,20 @@
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="28"/>
+      <c r="P3" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="V3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" ht="187.5" customHeight="1">
@@ -2379,30 +2478,36 @@
       <c r="M4" s="26"/>
       <c r="N4" s="27"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="28"/>
+      <c r="P4" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="28"/>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="V4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="P4:U4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="P2:U2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="P4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -2450,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5105948C-7804-4434-B607-79DA3F85CE6C}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2550,14 +2655,20 @@
       <c r="M2" s="26"/>
       <c r="N2" s="27"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="28"/>
+      <c r="P2" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="V2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X2" s="18"/>
     </row>
   </sheetData>
@@ -2615,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5675D81-029E-4257-AF3F-3FB1DA24B983}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:N3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="M1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2715,14 +2826,20 @@
       <c r="M2" s="26"/>
       <c r="N2" s="27"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="28"/>
+      <c r="P2" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="V2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X2" s="18"/>
     </row>
     <row r="3" spans="1:24" ht="220.5" customHeight="1">
@@ -2755,14 +2872,20 @@
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="28"/>
+      <c r="P3" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="V3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1"/>
@@ -2824,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017E22DB-897C-4CBD-B355-A546CADAE648}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2922,15 +3045,23 @@
       <c r="M2" s="26"/>
       <c r="N2" s="27"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="28"/>
+      <c r="P2" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
+      <c r="V2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="138.75" customHeight="1">
       <c r="A3" s="19">
@@ -2960,14 +3091,20 @@
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="28"/>
+      <c r="P3" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="V3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" ht="46.5" customHeight="1">
@@ -3000,14 +3137,20 @@
       <c r="M4" s="26"/>
       <c r="N4" s="27"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="28"/>
+      <c r="P4" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="28"/>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="V4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X4" s="18"/>
     </row>
     <row r="5" spans="1:24" ht="238.5" customHeight="1">
@@ -3038,18 +3181,30 @@
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="28"/>
+      <c r="P5" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="V5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="X5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="P5:U5"/>
@@ -3059,12 +3214,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="P4:U4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="P2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -3112,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A935C436-83B6-4944-84D7-100E4F279E3B}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:U2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3165,7 +3314,7 @@
         <v>19</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="33"/>
       <c r="R1" s="33"/>
@@ -3173,13 +3322,13 @@
       <c r="T1" s="33"/>
       <c r="U1" s="34"/>
       <c r="V1" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="27" customHeight="1">
@@ -3220,8 +3369,12 @@
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="V2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="X2" s="18"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1"/>
@@ -3280,7 +3433,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
